--- a/Hoc Phi.xlsx
+++ b/Hoc Phi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\SVN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -472,44 +472,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -840,8 +840,8 @@
   <dimension ref="A2:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
+      <pane ySplit="5" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,54 +858,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -918,17 +918,17 @@
         <v>400000</v>
       </c>
       <c r="H6" s="3">
-        <f>G6*F6</f>
+        <f t="shared" ref="H6:H52" si="0">G6*F6</f>
         <v>2000000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="4" t="s">
         <v>75</v>
       </c>
@@ -939,17 +939,17 @@
         <v>400000</v>
       </c>
       <c r="H7" s="3">
-        <f>G7*F7</f>
+        <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="4" t="s">
         <v>75</v>
       </c>
@@ -960,17 +960,17 @@
         <v>400000</v>
       </c>
       <c r="H8" s="3">
-        <f>G8*F8</f>
+        <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="4" t="s">
         <v>73</v>
       </c>
@@ -981,19 +981,19 @@
         <v>400000</v>
       </c>
       <c r="H9" s="3">
-        <f>G9*F9</f>
+        <f t="shared" si="0"/>
         <v>1600000</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1006,17 +1006,17 @@
         <v>450000</v>
       </c>
       <c r="H10" s="3">
-        <f>G10*F10</f>
+        <f t="shared" si="0"/>
         <v>2250000</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="4" t="s">
         <v>75</v>
       </c>
@@ -1027,17 +1027,17 @@
         <v>450000</v>
       </c>
       <c r="H11" s="3">
-        <f>G11*F11</f>
+        <f t="shared" si="0"/>
         <v>2250000</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="4" t="s">
         <v>73</v>
       </c>
@@ -1048,19 +1048,19 @@
         <v>450000</v>
       </c>
       <c r="H12" s="3">
-        <f>G12*F12</f>
+        <f t="shared" si="0"/>
         <v>1800000</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1073,17 +1073,17 @@
         <v>500000</v>
       </c>
       <c r="H13" s="3">
-        <f>G13*F13</f>
+        <f t="shared" si="0"/>
         <v>2500000</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="4" t="s">
         <v>75</v>
       </c>
@@ -1094,17 +1094,17 @@
         <v>500000</v>
       </c>
       <c r="H14" s="3">
-        <f>G14*F14</f>
+        <f t="shared" si="0"/>
         <v>2500000</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="4" t="s">
         <v>73</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>500000</v>
       </c>
       <c r="H15" s="3">
-        <f>G15*F15</f>
+        <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
     </row>
@@ -1123,337 +1123,337 @@
       <c r="A16" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="5">
         <v>2.5</v>
       </c>
       <c r="G16" s="3">
         <v>600000</v>
       </c>
       <c r="H16" s="3">
-        <f>G16*F16</f>
+        <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="5">
         <v>2.75</v>
       </c>
       <c r="G17" s="3">
         <v>600000</v>
       </c>
       <c r="H17" s="3">
-        <f>G17*F17</f>
+        <f t="shared" si="0"/>
         <v>1650000</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="5">
         <v>3</v>
       </c>
       <c r="G18" s="3">
         <v>660000</v>
       </c>
       <c r="H18" s="3">
-        <f>G18*F18</f>
+        <f t="shared" si="0"/>
         <v>1980000</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="5">
         <v>3</v>
       </c>
       <c r="G19" s="3">
         <v>660000</v>
       </c>
       <c r="H19" s="3">
-        <f>G19*F19</f>
+        <f t="shared" si="0"/>
         <v>1980000</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="5">
         <v>2.5</v>
       </c>
       <c r="G20" s="3">
         <v>660000</v>
       </c>
       <c r="H20" s="3">
-        <f>G20*F20</f>
+        <f t="shared" si="0"/>
         <v>1650000</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="5">
         <v>3</v>
       </c>
       <c r="G21" s="3">
         <v>750000</v>
       </c>
       <c r="H21" s="3">
-        <f>G21*F21</f>
+        <f t="shared" si="0"/>
         <v>2250000</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="8" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="5">
         <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>750000</v>
       </c>
       <c r="H22" s="3">
-        <f>G22*F22</f>
+        <f t="shared" si="0"/>
         <v>2250000</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="8" t="s">
+      <c r="D23" s="12"/>
+      <c r="E23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="5">
         <v>2.5</v>
       </c>
       <c r="G23" s="3">
         <v>750000</v>
       </c>
       <c r="H23" s="3">
-        <f>G23*F23</f>
+        <f t="shared" si="0"/>
         <v>1875000</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="5">
         <v>2.5</v>
       </c>
       <c r="G24" s="3">
         <v>870000</v>
       </c>
       <c r="H24" s="3">
-        <f>G24*F24</f>
+        <f t="shared" si="0"/>
         <v>2175000</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="8" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="5">
         <v>2.75</v>
       </c>
       <c r="G25" s="3">
         <v>870000</v>
       </c>
       <c r="H25" s="3">
-        <f>G25*F25</f>
+        <f t="shared" si="0"/>
         <v>2392500</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="5">
         <v>2.5</v>
       </c>
       <c r="G26" s="3">
         <v>960000</v>
       </c>
       <c r="H26" s="3">
-        <f>G26*F26</f>
+        <f t="shared" si="0"/>
         <v>2400000</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="8" t="s">
+      <c r="D27" s="12"/>
+      <c r="E27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="5">
         <v>2.75</v>
       </c>
       <c r="G27" s="3">
         <v>960000</v>
       </c>
       <c r="H27" s="3">
-        <f>G27*F27</f>
+        <f t="shared" si="0"/>
         <v>2640000</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="5">
         <v>2.5</v>
       </c>
       <c r="G28" s="3">
         <v>1050000</v>
       </c>
       <c r="H28" s="3">
-        <f>G28*F28</f>
+        <f t="shared" si="0"/>
         <v>2625000</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="8" t="s">
+      <c r="D29" s="12"/>
+      <c r="E29" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="5">
         <v>2.75</v>
       </c>
       <c r="G29" s="3">
         <v>1050000</v>
       </c>
       <c r="H29" s="3">
-        <f>G29*F29</f>
+        <f t="shared" si="0"/>
         <v>2887500</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -1466,17 +1466,17 @@
         <v>1210000</v>
       </c>
       <c r="H30" s="3">
-        <f>G30*F30</f>
+        <f t="shared" si="0"/>
         <v>3630000</v>
       </c>
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="4" t="s">
         <v>22</v>
       </c>
@@ -1487,17 +1487,17 @@
         <v>1210000</v>
       </c>
       <c r="H31" s="3">
-        <f>G31*F31</f>
+        <f t="shared" si="0"/>
         <v>3630000</v>
       </c>
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -1510,17 +1510,17 @@
         <v>1290000</v>
       </c>
       <c r="H32" s="3">
-        <f>G32*F32</f>
+        <f t="shared" si="0"/>
         <v>3870000</v>
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="4" t="s">
         <v>22</v>
       </c>
@@ -1531,17 +1531,17 @@
         <v>1290000</v>
       </c>
       <c r="H33" s="3">
-        <f>G33*F33</f>
+        <f t="shared" si="0"/>
         <v>3870000</v>
       </c>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -1554,17 +1554,17 @@
         <v>1290000</v>
       </c>
       <c r="H34" s="3">
-        <f>G34*F34</f>
+        <f t="shared" si="0"/>
         <v>5160000</v>
       </c>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="5"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="4" t="s">
         <v>5</v>
       </c>
@@ -1575,17 +1575,17 @@
         <v>1290000</v>
       </c>
       <c r="H35" s="3">
-        <f>G35*F35</f>
+        <f t="shared" si="0"/>
         <v>5160000</v>
       </c>
     </row>
     <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -1598,17 +1598,17 @@
         <v>1430000</v>
       </c>
       <c r="H36" s="3">
-        <f>G36*F36</f>
+        <f t="shared" si="0"/>
         <v>5720000</v>
       </c>
     </row>
     <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="5"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="4" t="s">
         <v>5</v>
       </c>
@@ -1619,17 +1619,17 @@
         <v>1430000</v>
       </c>
       <c r="H37" s="3">
-        <f>G37*F37</f>
+        <f t="shared" si="0"/>
         <v>5720000</v>
       </c>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -1642,17 +1642,17 @@
         <v>1585000</v>
       </c>
       <c r="H38" s="3">
-        <f>G38*F38</f>
+        <f t="shared" si="0"/>
         <v>6340000</v>
       </c>
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="5"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="4" t="s">
         <v>5</v>
       </c>
@@ -1663,21 +1663,21 @@
         <v>1585000</v>
       </c>
       <c r="H39" s="3">
-        <f>G39*F39</f>
+        <f t="shared" si="0"/>
         <v>6340000</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="7"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="4" t="s">
         <v>22</v>
       </c>
@@ -1688,17 +1688,17 @@
         <v>500000</v>
       </c>
       <c r="H40" s="3">
-        <f>G40*F40</f>
+        <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="7" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="7"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="4" t="s">
         <v>22</v>
       </c>
@@ -1709,17 +1709,17 @@
         <v>600000</v>
       </c>
       <c r="H41" s="3">
-        <f>G41*F41</f>
+        <f t="shared" si="0"/>
         <v>1800000</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="7" t="s">
+      <c r="A42" s="13"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="7"/>
+      <c r="D42" s="8"/>
       <c r="E42" s="4" t="s">
         <v>22</v>
       </c>
@@ -1730,17 +1730,17 @@
         <v>660000</v>
       </c>
       <c r="H42" s="3">
-        <f>G42*F42</f>
+        <f t="shared" si="0"/>
         <v>1980000</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="7" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="7"/>
+      <c r="D43" s="8"/>
       <c r="E43" s="4" t="s">
         <v>22</v>
       </c>
@@ -1751,17 +1751,17 @@
         <v>750000</v>
       </c>
       <c r="H43" s="3">
-        <f>G43*F43</f>
+        <f t="shared" si="0"/>
         <v>2250000</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="7" t="s">
+      <c r="A44" s="13"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="7"/>
+      <c r="D44" s="8"/>
       <c r="E44" s="4" t="s">
         <v>20</v>
       </c>
@@ -1772,15 +1772,15 @@
         <v>500000</v>
       </c>
       <c r="H44" s="3">
-        <f>G44*F44</f>
+        <f t="shared" si="0"/>
         <v>750000</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -1797,13 +1797,13 @@
         <v>1732500</v>
       </c>
       <c r="H45" s="3">
-        <f>G45*F45</f>
+        <f t="shared" si="0"/>
         <v>6930000</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="5"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="4" t="s">
         <v>16</v>
       </c>
@@ -1820,13 +1820,13 @@
         <v>1732500</v>
       </c>
       <c r="H46" s="3">
-        <f>G46*F46</f>
+        <f t="shared" si="0"/>
         <v>6930000</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="5"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="4" t="s">
         <v>14</v>
       </c>
@@ -1843,13 +1843,13 @@
         <v>1732500</v>
       </c>
       <c r="H47" s="3">
-        <f>G47*F47</f>
+        <f t="shared" si="0"/>
         <v>6930000</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="5" t="s">
+      <c r="A48" s="13"/>
+      <c r="B48" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -1868,13 +1868,13 @@
         <v>1732500</v>
       </c>
       <c r="H48" s="3">
-        <f>G48*F48</f>
+        <f t="shared" si="0"/>
         <v>6930000</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="5"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="4" t="s">
         <v>9</v>
       </c>
@@ -1891,13 +1891,13 @@
         <v>1897000</v>
       </c>
       <c r="H49" s="3">
-        <f>G49*F49</f>
+        <f t="shared" si="0"/>
         <v>7588000</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="5"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="4" t="s">
         <v>7</v>
       </c>
@@ -1914,13 +1914,13 @@
         <v>1897000</v>
       </c>
       <c r="H50" s="3">
-        <f>G50*F50</f>
+        <f t="shared" si="0"/>
         <v>7588000</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="5"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="4" t="s">
         <v>4</v>
       </c>
@@ -1937,13 +1937,13 @@
         <v>1897000</v>
       </c>
       <c r="H51" s="3">
-        <f>G51*F51</f>
+        <f t="shared" si="0"/>
         <v>9485000</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="5"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="4" t="s">
         <v>2</v>
       </c>
@@ -1960,28 +1960,12 @@
         <v>2502000</v>
       </c>
       <c r="H52" s="3">
-        <f>G52*F52</f>
+        <f t="shared" si="0"/>
         <v>12510000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="C40:D40"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="A6:A15"/>
@@ -1992,16 +1976,32 @@
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D28:D29"/>
     <mergeCell ref="A16:A29"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup scale="85" orientation="landscape" r:id="rId1"/>

--- a/Hoc Phi.xlsx
+++ b/Hoc Phi.xlsx
@@ -481,11 +481,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,8 +496,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -510,6 +507,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -840,8 +840,8 @@
   <dimension ref="A2:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,16 +858,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -896,16 +896,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="13" t="s">
         <v>86</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -923,12 +923,12 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="4" t="s">
         <v>75</v>
       </c>
@@ -944,12 +944,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="4" t="s">
         <v>75</v>
       </c>
@@ -965,12 +965,12 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="4" t="s">
         <v>73</v>
       </c>
@@ -986,14 +986,14 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1011,12 +1011,12 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="4" t="s">
         <v>75</v>
       </c>
@@ -1032,12 +1032,12 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="4" t="s">
         <v>73</v>
       </c>
@@ -1053,14 +1053,14 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
         <v>78</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1078,12 +1078,12 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="4" t="s">
         <v>75</v>
       </c>
@@ -1099,12 +1099,12 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="4" t="s">
         <v>73</v>
       </c>
@@ -1120,16 +1120,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -1147,12 +1147,12 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="5" t="s">
         <v>46</v>
       </c>
@@ -1168,14 +1168,14 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -1193,12 +1193,12 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1214,12 +1214,12 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="5" t="s">
         <v>49</v>
       </c>
@@ -1235,14 +1235,14 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -1260,12 +1260,12 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1281,12 +1281,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="5" t="s">
         <v>49</v>
       </c>
@@ -1302,14 +1302,14 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="13" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="13" t="s">
         <v>56</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -1327,12 +1327,12 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="5" t="s">
         <v>46</v>
       </c>
@@ -1348,14 +1348,14 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -1373,14 +1373,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="5" t="s">
         <v>46</v>
       </c>
@@ -1396,14 +1396,14 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -1421,14 +1421,14 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="5" t="s">
         <v>46</v>
       </c>
@@ -1444,16 +1444,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -1471,12 +1471,12 @@
       </c>
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="9"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="4" t="s">
         <v>22</v>
       </c>
@@ -1492,12 +1492,12 @@
       </c>
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -1515,12 +1515,12 @@
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="9"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="4" t="s">
         <v>22</v>
       </c>
@@ -1536,12 +1536,12 @@
       </c>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -1559,12 +1559,12 @@
       </c>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="9"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="4" t="s">
         <v>5</v>
       </c>
@@ -1580,12 +1580,12 @@
       </c>
     </row>
     <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -1603,12 +1603,12 @@
       </c>
     </row>
     <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="9"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="4" t="s">
         <v>5</v>
       </c>
@@ -1624,12 +1624,12 @@
       </c>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -1647,12 +1647,12 @@
       </c>
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="9"/>
+      <c r="D39" s="13"/>
       <c r="E39" s="4" t="s">
         <v>5</v>
       </c>
@@ -1668,16 +1668,16 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="4" t="s">
         <v>22</v>
       </c>
@@ -1693,12 +1693,12 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="8" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="4" t="s">
         <v>22</v>
       </c>
@@ -1706,20 +1706,20 @@
         <v>3</v>
       </c>
       <c r="G41" s="3">
-        <v>600000</v>
+        <v>700000</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" si="0"/>
-        <v>1800000</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="8" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="8"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="4" t="s">
         <v>22</v>
       </c>
@@ -1727,20 +1727,20 @@
         <v>3</v>
       </c>
       <c r="G42" s="3">
-        <v>660000</v>
+        <v>800000</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="0"/>
-        <v>1980000</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="8" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="8"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="4" t="s">
         <v>22</v>
       </c>
@@ -1748,20 +1748,20 @@
         <v>3</v>
       </c>
       <c r="G43" s="3">
-        <v>750000</v>
+        <v>900000</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="0"/>
-        <v>2250000</v>
+        <v>2700000</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="8" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="8"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="4" t="s">
         <v>20</v>
       </c>
@@ -1769,18 +1769,18 @@
         <v>1.5</v>
       </c>
       <c r="G44" s="3">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="0"/>
-        <v>750000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -1802,8 +1802,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="4" t="s">
         <v>16</v>
       </c>
@@ -1825,8 +1825,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="9"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="4" t="s">
         <v>14</v>
       </c>
@@ -1848,8 +1848,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -1873,8 +1873,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="4" t="s">
         <v>9</v>
       </c>
@@ -1896,8 +1896,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="9"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="4" t="s">
         <v>7</v>
       </c>
@@ -1919,8 +1919,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="4" t="s">
         <v>4</v>
       </c>
@@ -1942,8 +1942,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="4" t="s">
         <v>2</v>
       </c>
@@ -1966,6 +1966,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B30:B39"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="A6:A15"/>
@@ -1982,26 +2002,6 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup scale="85" orientation="landscape" r:id="rId1"/>

--- a/Hoc Phi.xlsx
+++ b/Hoc Phi.xlsx
@@ -18,6 +18,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">HocPhi!$A$1:$H$44</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -481,23 +482,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -507,9 +511,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -840,8 +841,8 @@
   <dimension ref="A2:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,16 +859,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -896,16 +897,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -923,12 +924,12 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="4" t="s">
         <v>75</v>
       </c>
@@ -944,12 +945,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="4" t="s">
         <v>75</v>
       </c>
@@ -965,12 +966,12 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="4" t="s">
         <v>73</v>
       </c>
@@ -986,14 +987,14 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1011,12 +1012,12 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="4" t="s">
         <v>75</v>
       </c>
@@ -1032,12 +1033,12 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="4" t="s">
         <v>73</v>
       </c>
@@ -1053,14 +1054,14 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1078,12 +1079,12 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="4" t="s">
         <v>75</v>
       </c>
@@ -1099,12 +1100,12 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="4" t="s">
         <v>73</v>
       </c>
@@ -1120,16 +1121,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -1147,7 +1148,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="11"/>
       <c r="C17" s="4" t="s">
         <v>69</v>
@@ -1168,14 +1169,14 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -1193,12 +1194,12 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1214,8 +1215,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="4" t="s">
         <v>64</v>
       </c>
@@ -1235,14 +1236,14 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="10" t="s">
         <v>61</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -1260,12 +1261,12 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1281,7 +1282,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="11"/>
       <c r="C23" s="4" t="s">
         <v>59</v>
@@ -1302,14 +1303,14 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="9" t="s">
         <v>56</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -1327,12 +1328,12 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="5" t="s">
         <v>46</v>
       </c>
@@ -1348,14 +1349,14 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -1373,7 +1374,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
@@ -1396,14 +1397,14 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="10" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -1421,7 +1422,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="6" t="s">
         <v>48</v>
       </c>
@@ -1444,16 +1445,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -1471,12 +1472,12 @@
       </c>
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="4" t="s">
         <v>22</v>
       </c>
@@ -1492,12 +1493,12 @@
       </c>
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -1515,12 +1516,12 @@
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="4" t="s">
         <v>22</v>
       </c>
@@ -1536,12 +1537,12 @@
       </c>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -1559,12 +1560,12 @@
       </c>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="13"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="4" t="s">
         <v>5</v>
       </c>
@@ -1580,12 +1581,12 @@
       </c>
     </row>
     <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -1603,12 +1604,12 @@
       </c>
     </row>
     <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="13"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="4" t="s">
         <v>5</v>
       </c>
@@ -1624,12 +1625,12 @@
       </c>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -1647,12 +1648,12 @@
       </c>
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="13"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="4" t="s">
         <v>5</v>
       </c>
@@ -1668,16 +1669,16 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="17"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="4" t="s">
         <v>22</v>
       </c>
@@ -1693,12 +1694,12 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="17" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="17"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="4" t="s">
         <v>22</v>
       </c>
@@ -1714,12 +1715,12 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="17" t="s">
+      <c r="A42" s="13"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="8"/>
       <c r="E42" s="4" t="s">
         <v>22</v>
       </c>
@@ -1735,12 +1736,12 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="17" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="17"/>
+      <c r="D43" s="8"/>
       <c r="E43" s="4" t="s">
         <v>22</v>
       </c>
@@ -1756,12 +1757,12 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="17" t="s">
+      <c r="A44" s="13"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="17"/>
+      <c r="D44" s="8"/>
       <c r="E44" s="4" t="s">
         <v>20</v>
       </c>
@@ -1777,10 +1778,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -1802,8 +1803,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="4" t="s">
         <v>16</v>
       </c>
@@ -1825,8 +1826,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="4" t="s">
         <v>14</v>
       </c>
@@ -1848,8 +1849,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13" t="s">
+      <c r="A48" s="13"/>
+      <c r="B48" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -1873,8 +1874,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="4" t="s">
         <v>9</v>
       </c>
@@ -1896,8 +1897,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="4" t="s">
         <v>7</v>
       </c>
@@ -1919,8 +1920,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="4" t="s">
         <v>4</v>
       </c>
@@ -1942,8 +1943,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="4" t="s">
         <v>2</v>
       </c>
@@ -1966,26 +1967,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B30:B39"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="A6:A15"/>
@@ -2002,6 +1983,26 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup scale="85" orientation="landscape" r:id="rId1"/>

--- a/Hoc Phi.xlsx
+++ b/Hoc Phi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="HocPhi" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">HocPhi!$A$1:$H$44</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -482,26 +481,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -511,6 +507,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -841,8 +840,8 @@
   <dimension ref="A2:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,16 +858,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -897,16 +896,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="13" t="s">
         <v>86</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -924,12 +923,12 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="4" t="s">
         <v>75</v>
       </c>
@@ -945,12 +944,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="4" t="s">
         <v>75</v>
       </c>
@@ -966,12 +965,12 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="4" t="s">
         <v>73</v>
       </c>
@@ -987,14 +986,14 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1012,12 +1011,12 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="4" t="s">
         <v>75</v>
       </c>
@@ -1033,12 +1032,12 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="4" t="s">
         <v>73</v>
       </c>
@@ -1054,14 +1053,14 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
         <v>78</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1079,12 +1078,12 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="4" t="s">
         <v>75</v>
       </c>
@@ -1100,12 +1099,12 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="4" t="s">
         <v>73</v>
       </c>
@@ -1121,16 +1120,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -1148,7 +1147,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="11"/>
       <c r="C17" s="4" t="s">
         <v>69</v>
@@ -1169,14 +1168,14 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -1194,12 +1193,12 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1215,8 +1214,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="4" t="s">
         <v>64</v>
       </c>
@@ -1236,14 +1235,14 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -1261,12 +1260,12 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1282,7 +1281,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="11"/>
       <c r="C23" s="4" t="s">
         <v>59</v>
@@ -1303,14 +1302,14 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="13" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="13" t="s">
         <v>56</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -1328,12 +1327,12 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="5" t="s">
         <v>46</v>
       </c>
@@ -1349,14 +1348,14 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -1374,7 +1373,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
@@ -1397,14 +1396,14 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -1422,7 +1421,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="6" t="s">
         <v>48</v>
       </c>
@@ -1445,16 +1444,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -1472,12 +1471,12 @@
       </c>
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="9"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="4" t="s">
         <v>22</v>
       </c>
@@ -1493,12 +1492,12 @@
       </c>
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -1516,12 +1515,12 @@
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="9"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="4" t="s">
         <v>22</v>
       </c>
@@ -1537,12 +1536,12 @@
       </c>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -1560,12 +1559,12 @@
       </c>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="9"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="4" t="s">
         <v>5</v>
       </c>
@@ -1581,12 +1580,12 @@
       </c>
     </row>
     <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -1604,12 +1603,12 @@
       </c>
     </row>
     <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="9"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="4" t="s">
         <v>5</v>
       </c>
@@ -1625,12 +1624,12 @@
       </c>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -1648,12 +1647,12 @@
       </c>
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="9"/>
+      <c r="D39" s="13"/>
       <c r="E39" s="4" t="s">
         <v>5</v>
       </c>
@@ -1669,16 +1668,16 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="4" t="s">
         <v>22</v>
       </c>
@@ -1694,12 +1693,12 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="8" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="4" t="s">
         <v>22</v>
       </c>
@@ -1715,12 +1714,12 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="8" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="8"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="4" t="s">
         <v>22</v>
       </c>
@@ -1736,12 +1735,12 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="8" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="8"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="4" t="s">
         <v>22</v>
       </c>
@@ -1757,12 +1756,12 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="8" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="8"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="4" t="s">
         <v>20</v>
       </c>
@@ -1777,11 +1776,11 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+    <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -1803,8 +1802,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="4" t="s">
         <v>16</v>
       </c>
@@ -1826,8 +1825,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="9"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="4" t="s">
         <v>14</v>
       </c>
@@ -1849,8 +1848,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -1874,8 +1873,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="4" t="s">
         <v>9</v>
       </c>
@@ -1897,8 +1896,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="9"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="4" t="s">
         <v>7</v>
       </c>
@@ -1920,8 +1919,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="4" t="s">
         <v>4</v>
       </c>
@@ -1943,8 +1942,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="4" t="s">
         <v>2</v>
       </c>
@@ -1967,6 +1966,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B30:B39"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="A6:A15"/>
@@ -1983,26 +2002,6 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup scale="85" orientation="landscape" r:id="rId1"/>

--- a/Hoc Phi.xlsx
+++ b/Hoc Phi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\SVN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="HocPhi" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>300-500</t>
   </si>
   <si>
-    <t>200-300</t>
-  </si>
-  <si>
     <t>TOEIC</t>
   </si>
   <si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>CHƯƠNG TRÌNH HỌC</t>
+  </si>
+  <si>
+    <t>Pre-TOEIC</t>
   </si>
 </sst>
 </file>
@@ -481,23 +481,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -507,9 +510,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -840,8 +840,8 @@
   <dimension ref="A2:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="5" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,58 +858,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="A2" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="13" t="s">
         <v>88</v>
       </c>
+      <c r="B6" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="C6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="13" t="s">
         <v>86</v>
       </c>
+      <c r="D6" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="E6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="4">
         <v>5</v>
@@ -923,14 +923,14 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="D7" s="9"/>
       <c r="E7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="4">
         <v>5</v>
@@ -944,14 +944,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="D8" s="9"/>
       <c r="E8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="4">
         <v>5</v>
@@ -965,14 +965,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="4">
         <v>4</v>
@@ -986,18 +986,18 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
-        <v>82</v>
+      <c r="A10" s="13"/>
+      <c r="B10" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>42</v>
+        <v>80</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="4">
         <v>5</v>
@@ -1011,14 +1011,14 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="13"/>
+        <v>79</v>
+      </c>
+      <c r="D11" s="9"/>
       <c r="E11" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="4">
         <v>5</v>
@@ -1032,14 +1032,14 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="4">
         <v>4</v>
@@ -1053,18 +1053,18 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
-        <v>78</v>
+      <c r="A13" s="13"/>
+      <c r="B13" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>39</v>
+        <v>76</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="4">
         <v>5</v>
@@ -1078,14 +1078,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="13"/>
+        <v>75</v>
+      </c>
+      <c r="D14" s="9"/>
       <c r="E14" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="4">
         <v>5</v>
@@ -1099,14 +1099,14 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="13"/>
+        <v>73</v>
+      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="4">
         <v>4</v>
@@ -1120,20 +1120,20 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="15" t="s">
         <v>71</v>
       </c>
+      <c r="B16" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="C16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>42</v>
+        <v>69</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" s="5">
         <v>2.5</v>
@@ -1147,14 +1147,14 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="11"/>
       <c r="C17" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="5">
         <v>2.75</v>
@@ -1168,15 +1168,15 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="9" t="s">
-        <v>68</v>
+      <c r="A18" s="16"/>
+      <c r="B18" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="9" t="s">
         <v>66</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>22</v>
@@ -1193,12 +1193,12 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="D19" s="12"/>
       <c r="E19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1214,14 +1214,14 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="5">
         <v>2.5</v>
@@ -1235,15 +1235,15 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="9" t="s">
-        <v>63</v>
+      <c r="A21" s="16"/>
+      <c r="B21" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="9" t="s">
         <v>61</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>22</v>
@@ -1260,12 +1260,12 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="D22" s="12"/>
       <c r="E22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1281,14 +1281,14 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="11"/>
       <c r="C23" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="5">
         <v>2.5</v>
@@ -1302,18 +1302,18 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="13" t="s">
-        <v>58</v>
+      <c r="A24" s="16"/>
+      <c r="B24" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="13" t="s">
         <v>56</v>
       </c>
+      <c r="D24" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="E24" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="5">
         <v>2.5</v>
@@ -1327,14 +1327,14 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="D25" s="9"/>
       <c r="E25" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" s="5">
         <v>2.75</v>
@@ -1348,18 +1348,18 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>30</v>
+      <c r="D26" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26" s="5">
         <v>2.5</v>
@@ -1373,16 +1373,16 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="5">
         <v>2.75</v>
@@ -1396,18 +1396,18 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="F28" s="5">
         <v>2.5</v>
@@ -1421,16 +1421,16 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" s="5">
         <v>2.75</v>
@@ -1444,17 +1444,17 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="B30" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="C30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="13" t="s">
         <v>42</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>22</v>
@@ -1471,12 +1471,12 @@
       </c>
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="D31" s="9"/>
       <c r="E31" s="4" t="s">
         <v>22</v>
       </c>
@@ -1492,13 +1492,13 @@
       </c>
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="13" t="s">
         <v>39</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>22</v>
@@ -1515,12 +1515,12 @@
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="D33" s="9"/>
       <c r="E33" s="4" t="s">
         <v>22</v>
       </c>
@@ -1536,13 +1536,13 @@
       </c>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="13" t="s">
         <v>36</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>5</v>
@@ -1559,12 +1559,12 @@
       </c>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="D35" s="9"/>
       <c r="E35" s="4" t="s">
         <v>5</v>
       </c>
@@ -1580,13 +1580,13 @@
       </c>
     </row>
     <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="13" t="s">
         <v>33</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>5</v>
@@ -1603,12 +1603,12 @@
       </c>
     </row>
     <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D37" s="9"/>
       <c r="E37" s="4" t="s">
         <v>5</v>
       </c>
@@ -1624,13 +1624,13 @@
       </c>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="13" t="s">
         <v>30</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>5</v>
@@ -1647,12 +1647,12 @@
       </c>
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="D39" s="9"/>
       <c r="E39" s="4" t="s">
         <v>5</v>
       </c>
@@ -1668,16 +1668,16 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="13" t="s">
+      <c r="A40" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="B40" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="17"/>
+      <c r="C40" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="8"/>
       <c r="E40" s="4" t="s">
         <v>22</v>
       </c>
@@ -1685,20 +1685,20 @@
         <v>3</v>
       </c>
       <c r="G40" s="3">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="0"/>
-        <v>1500000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="17" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="17"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="4" t="s">
         <v>22</v>
       </c>
@@ -1714,12 +1714,12 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="17" t="s">
+      <c r="A42" s="13"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="8"/>
       <c r="E42" s="4" t="s">
         <v>22</v>
       </c>
@@ -1735,12 +1735,12 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="17" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="17"/>
+      <c r="D43" s="8"/>
       <c r="E43" s="4" t="s">
         <v>22</v>
       </c>
@@ -1756,12 +1756,12 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="17" t="s">
+      <c r="A44" s="13"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="17"/>
+      <c r="D44" s="8"/>
       <c r="E44" s="4" t="s">
         <v>20</v>
       </c>
@@ -1777,10 +1777,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -1802,8 +1802,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="4" t="s">
         <v>16</v>
       </c>
@@ -1825,8 +1825,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="4" t="s">
         <v>14</v>
       </c>
@@ -1848,8 +1848,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13" t="s">
+      <c r="A48" s="13"/>
+      <c r="B48" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -1873,8 +1873,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="4" t="s">
         <v>9</v>
       </c>
@@ -1896,8 +1896,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="4" t="s">
         <v>7</v>
       </c>
@@ -1919,8 +1919,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="4" t="s">
         <v>4</v>
       </c>
@@ -1942,8 +1942,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="4" t="s">
         <v>2</v>
       </c>
@@ -1966,26 +1966,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B30:B39"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="A6:A15"/>
@@ -2002,6 +1982,26 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup scale="85" orientation="landscape" r:id="rId1"/>
